--- a/examples/ODIN_simple.xlsx
+++ b/examples/ODIN_simple.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93DCA875-D307-4858-92CB-CA29E142C78A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab0002b\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECCC1D-DC69-4D93-A4A3-29388B57AF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="2550" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +16,14 @@
     <sheet name="test_youtuber" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">test_youtuber!$F$1:$Q$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">test_youtuber!$E$1:$O$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>KR</t>
   </si>
@@ -50,9 +55,6 @@
     <t>COUNTER</t>
   </si>
   <si>
-    <t>STRATEGY</t>
-  </si>
-  <si>
     <t>WAERS</t>
   </si>
   <si>
@@ -71,9 +73,6 @@
     <t>WRBTR_S</t>
   </si>
   <si>
-    <t>CUSTOM1</t>
-  </si>
-  <si>
     <t>KUNNR</t>
   </si>
   <si>
@@ -87,15 +86,6 @@
   </si>
   <si>
     <t>Text position</t>
-  </si>
-  <si>
-    <t>Some custom value</t>
-  </si>
-  <si>
-    <t>Another custom value</t>
-  </si>
-  <si>
-    <t>MY_STRATEGY</t>
   </si>
   <si>
     <t>Another example</t>
@@ -959,328 +949,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
       </c>
       <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>1234</v>
       </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43916</v>
       </c>
       <c r="F2" s="1">
         <v>43916</v>
       </c>
-      <c r="G2" s="1">
-        <v>43916</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2">
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
         <v>100000</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L2" s="4">
         <v>119</v>
       </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
       <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
         <v>1234</v>
       </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43916</v>
       </c>
       <c r="F3" s="1">
         <v>43916</v>
       </c>
-      <c r="G3" s="1">
-        <v>43916</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>200000</v>
       </c>
-      <c r="N3" s="4">
+      <c r="M3" s="4">
         <v>119</v>
       </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
       <c r="O3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>1234</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43917</v>
       </c>
       <c r="F4" s="1">
-        <v>43917</v>
-      </c>
-      <c r="G4" s="1">
         <v>43916</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4">
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>100001</v>
       </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
         <v>59.5</v>
       </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
       <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>1234</v>
       </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43917</v>
       </c>
       <c r="F5" s="1">
-        <v>43917</v>
-      </c>
-      <c r="G5" s="1">
         <v>43916</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5">
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>100001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
         <v>59.5</v>
       </c>
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
       <c r="O5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
         <v>1234</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43917</v>
       </c>
       <c r="F6" s="1">
-        <v>43917</v>
-      </c>
-      <c r="G6" s="1">
         <v>43916</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6">
         <v>200001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="L6" s="4">
         <v>119</v>
       </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
       <c r="O6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:Q11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="E1:O11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1288,18 +1240,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1526,6 +1478,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010AFF57-03B9-47B9-9EB6-AFC0BDD2D280}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41EA40B-C821-43DE-B717-8C8AE5EBAA93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1538,14 +1498,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010AFF57-03B9-47B9-9EB6-AFC0BDD2D280}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/examples/ODIN_simple.xlsx
+++ b/examples/ODIN_simple.xlsx
@@ -5,25 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab0002b\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab0002b\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECCC1D-DC69-4D93-A4A3-29388B57AF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78E1D7-65E2-4E9F-943B-C14B996A87B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="2550" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_youtuber" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Available Fields" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">test_youtuber!$E$1:$O$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Template!$E$1:$O$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>KR</t>
   </si>
@@ -92,13 +100,16 @@
   </si>
   <si>
     <t>INVOICE-002</t>
+  </si>
+  <si>
+    <t>See https://github.com/71tech/ODIN/wiki/Available-fields</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +252,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -586,16 +605,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -626,6 +647,7 @@
     <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1239,19 +1261,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89101A0D-2438-49F0-9DC1-63BDF5BEA596}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{A684C25F-C527-41C1-9A4B-518B338379BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1478,14 +1521,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010AFF57-03B9-47B9-9EB6-AFC0BDD2D280}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41EA40B-C821-43DE-B717-8C8AE5EBAA93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1498,6 +1533,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010AFF57-03B9-47B9-9EB6-AFC0BDD2D280}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/examples/ODIN_simple.xlsx
+++ b/examples/ODIN_simple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab0002b\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hab0002b\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A73A76A-2735-4028-B61F-FB40D47EACD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0613AAF-72FC-4B06-ADCB-7DA2E796B3A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,6 @@
     <t>General Ledger Account</t>
   </si>
   <si>
-    <t>Amount gross in document currency in debit. WRBTR_S and WRBTR_H must add up to 0 within a document</t>
-  </si>
-  <si>
-    <t>Amount gross in document currency in credit. WRBTR_S and WRBTR_H must add up to 0 within in a document</t>
-  </si>
-  <si>
     <t>Currency Key</t>
   </si>
   <si>
@@ -373,6 +367,12 @@
   </si>
   <si>
     <t>ID vendor in G/L position (use field LIFNR if you want to post a vendor position)</t>
+  </si>
+  <si>
+    <t>Amount gross in document currency in debit. The difference between WRBTR_S and WRBTR_H must be 0 within one document.</t>
+  </si>
+  <si>
+    <t>Amount gross in document currency in credit. The difference between WRBTR_S and WRBTR_H must be 0 within one document.</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89101A0D-2438-49F0-9DC1-63BDF5BEA596}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,191 +1675,191 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,111 +1867,111 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1983,9 +1983,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2212,27 +2215,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41EA40B-C821-43DE-B717-8C8AE5EBAA93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010AFF57-03B9-47B9-9EB6-AFC0BDD2D280}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e8480b3d-a526-4ebf-a523-f62e14209813"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8ee55a71-4801-4948-8c6d-bf4dbe4ef23a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2257,9 +2248,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010AFF57-03B9-47B9-9EB6-AFC0BDD2D280}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41EA40B-C821-43DE-B717-8C8AE5EBAA93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e8480b3d-a526-4ebf-a523-f62e14209813"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8ee55a71-4801-4948-8c6d-bf4dbe4ef23a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>